--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAA329F3-5E2B-4583-AB7B-3B821726E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{DAA329F3-5E2B-4583-AB7B-3B821726E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01D1FB48-61BE-46F1-9244-F32C7E507B49}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1980" windowWidth="28800" windowHeight="15450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Height</t>
   </si>
@@ -88,13 +88,31 @@
     <t>Income</t>
   </si>
   <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>Individual Income in usd</t>
   </si>
   <si>
-    <t>Body mass index in kg/m2</t>
+    <t>Eye Color</t>
+  </si>
+  <si>
+    <t>person's eye color</t>
+  </si>
+  <si>
+    <t>brown/blue/green/black/hazel</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>hazel</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -160,10 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,12 +446,12 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,10 +465,10 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>180</v>
       </c>
@@ -467,11 +481,11 @@
       <c r="D2" s="2">
         <v>70000</v>
       </c>
-      <c r="E2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>175</v>
       </c>
@@ -484,11 +498,11 @@
       <c r="D3" s="2">
         <v>80000</v>
       </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -501,11 +515,11 @@
       <c r="D4" s="2">
         <v>90000</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>178</v>
       </c>
@@ -518,11 +532,11 @@
       <c r="D5" s="2">
         <v>95000</v>
       </c>
-      <c r="E5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>192</v>
       </c>
@@ -535,11 +549,11 @@
       <c r="D6" s="2">
         <v>75000</v>
       </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -552,11 +566,11 @@
       <c r="D7" s="2">
         <v>85000</v>
       </c>
-      <c r="E7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>156</v>
       </c>
@@ -569,11 +583,11 @@
       <c r="D8" s="2">
         <v>89000</v>
       </c>
-      <c r="E8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>166</v>
       </c>
@@ -586,11 +600,11 @@
       <c r="D9" s="2">
         <v>85000</v>
       </c>
-      <c r="E9">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>155</v>
       </c>
@@ -603,11 +617,11 @@
       <c r="D10" s="2">
         <v>92000</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>145</v>
       </c>
@@ -620,25 +634,28 @@
       <c r="D11" s="2">
         <v>78000</v>
       </c>
-      <c r="E11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>165</v>
       </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>110000</v>
       </c>
-      <c r="E12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>133</v>
       </c>
@@ -651,11 +668,11 @@
       <c r="D13" s="2">
         <v>100000</v>
       </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>166</v>
       </c>
@@ -668,11 +685,11 @@
       <c r="D14" s="2">
         <v>60000</v>
       </c>
-      <c r="E14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>154</v>
       </c>
@@ -685,9 +702,8 @@
       <c r="D15" s="2">
         <v>96000</v>
       </c>
-      <c r="E15">
-        <f>ROUND(B15/((A15/100)^2),0)</f>
-        <v>21</v>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -700,17 +716,17 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -721,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,7 +759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -754,26 +770,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
